--- a/uploads/TO LIST SAMPLE.xlsx
+++ b/uploads/TO LIST SAMPLE.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\del\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72512B6-2B0E-43CD-91C3-907DE95F7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15600" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>EMP ID</t>
   </si>
@@ -74,6 +80,9 @@
     <t xml:space="preserve">     FRESH FILE LOGIN AND MIS UPDATE</t>
   </si>
   <si>
+    <t>SEND FILE TO BANKER</t>
+  </si>
+  <si>
     <t>SEND INFORMATION TO SALE TEAM</t>
   </si>
   <si>
@@ -86,25 +95,28 @@
     <t>WORK IN INPROCESS CASE</t>
   </si>
   <si>
-    <t>MANNU BHARDWAJ CASE LOGIN AND UPDATE AND FRESH LOGIN</t>
-  </si>
-  <si>
-    <t>DATE : 23-FEB-24</t>
-  </si>
-  <si>
     <t>UPDATE MIS AND CONTECT WITH BANKER AND SALE TEAM FOR INPROCESS CASES</t>
   </si>
   <si>
-    <t>ROHIT</t>
+    <t>DATE : 28-FEB-24</t>
+  </si>
+  <si>
+    <t>ROHIT CHAUHAN</t>
   </si>
   <si>
     <t>F2-369-220</t>
+  </si>
+  <si>
+    <t>UPDATED CASE DETAILS ON OPS MANAGEMENT SYSTEM</t>
+  </si>
+  <si>
+    <t>UPDATED CASE DETAILS ON JIRA MANAGEMENT SYSTEM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -217,11 +229,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -238,27 +296,49 @@
     <xf numFmtId="20" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -271,14 +351,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -316,7 +399,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -388,7 +471,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,86 +644,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="73.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="13">
-        <v>45353</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="15">
+        <v>45418</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -648,50 +755,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
@@ -702,11 +808,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5">
@@ -716,12 +822,12 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="5">
         <v>0.45833333333333331</v>
       </c>
@@ -729,25 +835,23 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="5">
         <v>0.52083333333333337</v>
       </c>
       <c r="D6" s="5">
         <v>0.56944444444444442</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5">
         <v>0.56944444444444442</v>
       </c>
@@ -758,9 +862,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5">
         <v>0.59375</v>
       </c>
@@ -768,12 +872,12 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="5">
         <v>0.64583333333333337</v>
       </c>
@@ -784,9 +888,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="5">
         <v>0.6875</v>
       </c>
@@ -797,9 +901,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="5">
         <v>0.72916666666666663</v>
       </c>
@@ -807,12 +911,12 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="5">
         <v>0.77083333333333337</v>
       </c>

--- a/uploads/TO LIST SAMPLE.xlsx
+++ b/uploads/TO LIST SAMPLE.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\del\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72512B6-2B0E-43CD-91C3-907DE95F7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15600" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>EMP ID</t>
   </si>
@@ -47,6 +41,9 @@
     <t xml:space="preserve">CHECK THE DOCUMENTS </t>
   </si>
   <si>
+    <t>CORDINATE WITH BANKER FOR CASE STATUS</t>
+  </si>
+  <si>
     <t>NISHA CHAUHAN</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
     <t>SEND INFORMATION TO SALE TEAM</t>
   </si>
   <si>
+    <t>MAKE STAR PERFORMER REPORT</t>
+  </si>
+  <si>
     <t>CHECK MIS AND MAKE STAR PERFORMER REPORT</t>
   </si>
   <si>
@@ -101,22 +101,13 @@
     <t>DATE : 28-FEB-24</t>
   </si>
   <si>
-    <t>ROHIT CHAUHAN</t>
-  </si>
-  <si>
-    <t>F2-369-220</t>
-  </si>
-  <si>
-    <t>UPDATED CASE DETAILS ON OPS MANAGEMENT SYSTEM</t>
-  </si>
-  <si>
-    <t>UPDATED CASE DETAILS ON JIRA MANAGEMENT SYSTEM</t>
+    <t xml:space="preserve">MAKE LOGIN MIS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -265,6 +256,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -273,13 +277,24 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -296,6 +311,13 @@
     <xf numFmtId="20" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,30 +327,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,9 +368,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -351,17 +380,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -399,7 +425,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -471,7 +497,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -644,110 +670,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="73.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="73.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="15">
-        <v>45418</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="21">
+        <v>45415</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="8" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="8" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="9" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="20" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="7" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="20" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -755,65 +797,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="B4" s="26" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="5">
         <v>0.41666666666666669</v>
@@ -822,12 +865,12 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="5">
         <v>0.45833333333333331</v>
       </c>
@@ -835,12 +878,12 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="5">
         <v>0.52083333333333337</v>
       </c>
@@ -849,9 +892,9 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="5">
         <v>0.56944444444444442</v>
       </c>
@@ -859,12 +902,12 @@
         <v>0.59375</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="5">
         <v>0.59375</v>
       </c>
@@ -872,12 +915,12 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="5">
         <v>0.64583333333333337</v>
       </c>
@@ -885,12 +928,12 @@
         <v>0.6875</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="5">
         <v>0.6875</v>
       </c>
@@ -898,12 +941,12 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="5">
         <v>0.72916666666666663</v>
       </c>
@@ -911,12 +954,12 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="5">
         <v>0.77083333333333337</v>
       </c>
@@ -924,7 +967,7 @@
         <v>0.8125</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
